--- a/data/pca/factorExposure/factorExposure_2009-11-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007308233396826812</v>
+        <v>-0.01646983635294181</v>
       </c>
       <c r="C2">
-        <v>0.001560817481733011</v>
+        <v>0.0008480105547857746</v>
       </c>
       <c r="D2">
-        <v>-0.009653384569381696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008941313072428399</v>
+      </c>
+      <c r="E2">
+        <v>0.001113347161362207</v>
+      </c>
+      <c r="F2">
+        <v>-0.01181513153668702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.109135566515726</v>
+        <v>-0.09372342400393127</v>
       </c>
       <c r="C4">
-        <v>-0.001335713364693465</v>
+        <v>0.01473412254898128</v>
       </c>
       <c r="D4">
-        <v>-0.04580014738036592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08484466311623708</v>
+      </c>
+      <c r="E4">
+        <v>0.02841612413215873</v>
+      </c>
+      <c r="F4">
+        <v>0.03083585534891867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1402108251815094</v>
+        <v>-0.1583562160357146</v>
       </c>
       <c r="C6">
-        <v>0.001676814916160305</v>
+        <v>0.02572185711043842</v>
       </c>
       <c r="D6">
-        <v>0.03779037797811265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02127331879083119</v>
+      </c>
+      <c r="E6">
+        <v>0.01155638567363343</v>
+      </c>
+      <c r="F6">
+        <v>0.04531750293427934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07844624824271994</v>
+        <v>-0.06313329696692782</v>
       </c>
       <c r="C7">
-        <v>-0.01357738995549666</v>
+        <v>-0.001717906133894218</v>
       </c>
       <c r="D7">
-        <v>-0.02468728084398878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05241187932341169</v>
+      </c>
+      <c r="E7">
+        <v>0.009211888253161184</v>
+      </c>
+      <c r="F7">
+        <v>0.0470571447142528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06610765404527957</v>
+        <v>-0.05686097424525467</v>
       </c>
       <c r="C8">
-        <v>-0.0225405424374327</v>
+        <v>-0.01364924077735408</v>
       </c>
       <c r="D8">
-        <v>0.006952784350709438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03323494417284344</v>
+      </c>
+      <c r="E8">
+        <v>0.01755747359498117</v>
+      </c>
+      <c r="F8">
+        <v>-0.02737706389726647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09131093358768161</v>
+        <v>-0.07100863738922393</v>
       </c>
       <c r="C9">
-        <v>-0.0007294644317324276</v>
+        <v>0.01039828497740181</v>
       </c>
       <c r="D9">
-        <v>-0.04374091424739945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08658294620661001</v>
+      </c>
+      <c r="E9">
+        <v>0.02256693192456682</v>
+      </c>
+      <c r="F9">
+        <v>0.04658674277312442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04598915446846862</v>
+        <v>-0.09373327662788357</v>
       </c>
       <c r="C10">
-        <v>0.001552452674651644</v>
+        <v>0.020951717012714</v>
       </c>
       <c r="D10">
-        <v>0.1275747716289822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1679811068384559</v>
+      </c>
+      <c r="E10">
+        <v>-0.03461757567373453</v>
+      </c>
+      <c r="F10">
+        <v>-0.05339579956187571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.1022221016045301</v>
+        <v>-0.08781472391742237</v>
       </c>
       <c r="C11">
-        <v>-0.00193528370814819</v>
+        <v>0.01039999670288662</v>
       </c>
       <c r="D11">
-        <v>-0.07294782292575198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1168240673896286</v>
+      </c>
+      <c r="E11">
+        <v>0.04602936675239317</v>
+      </c>
+      <c r="F11">
+        <v>0.0207737406603853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1077539090741541</v>
+        <v>-0.09174915934326872</v>
       </c>
       <c r="C12">
-        <v>-0.004571084893429703</v>
+        <v>0.007465732214602193</v>
       </c>
       <c r="D12">
-        <v>-0.07628350675657952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1325757208547628</v>
+      </c>
+      <c r="E12">
+        <v>0.0475744674806116</v>
+      </c>
+      <c r="F12">
+        <v>0.02698047359236687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04529790629414365</v>
+        <v>-0.04214731409038248</v>
       </c>
       <c r="C13">
-        <v>-0.002028572894104598</v>
+        <v>0.002831978990145697</v>
       </c>
       <c r="D13">
-        <v>-0.0264885496761062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05281752905280294</v>
+      </c>
+      <c r="E13">
+        <v>-0.007688688384590863</v>
+      </c>
+      <c r="F13">
+        <v>0.001684022676453573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02385595990994557</v>
+        <v>-0.02406207186310314</v>
       </c>
       <c r="C14">
-        <v>0.01040493301666098</v>
+        <v>0.0140017375149194</v>
       </c>
       <c r="D14">
-        <v>-0.01928073759171935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03240553389355451</v>
+      </c>
+      <c r="E14">
+        <v>0.01698252274594173</v>
+      </c>
+      <c r="F14">
+        <v>0.01230684768072532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04221319688423136</v>
+        <v>-0.03304911023982864</v>
       </c>
       <c r="C15">
-        <v>-0.0001729319803902123</v>
+        <v>0.004665227712083942</v>
       </c>
       <c r="D15">
-        <v>-0.01155203542798784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04503465025180452</v>
+      </c>
+      <c r="E15">
+        <v>0.005682973161927291</v>
+      </c>
+      <c r="F15">
+        <v>0.02337882981242592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08930899389543401</v>
+        <v>-0.0741784862203838</v>
       </c>
       <c r="C16">
-        <v>-0.008882998580588589</v>
+        <v>0.001108168927499089</v>
       </c>
       <c r="D16">
-        <v>-0.06855834347420706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.126808591341178</v>
+      </c>
+      <c r="E16">
+        <v>0.06186108375401743</v>
+      </c>
+      <c r="F16">
+        <v>0.0245990410049847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-5.336054441878503e-05</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.078020803928252e-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-2.33254986675195e-05</v>
+      </c>
+      <c r="E17">
+        <v>-2.985249014669994e-05</v>
+      </c>
+      <c r="F17">
+        <v>-0.0001234191708306266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.03404566705264282</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003318498502577791</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01744665783397833</v>
+      </c>
+      <c r="E18">
+        <v>-0.007810299477332451</v>
+      </c>
+      <c r="F18">
+        <v>-0.007653974204860111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06392696577985767</v>
+        <v>-0.06098822614563831</v>
       </c>
       <c r="C20">
-        <v>-0.005025100776341989</v>
+        <v>-0.0002047272553546475</v>
       </c>
       <c r="D20">
-        <v>-0.02134551435187135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07808438867920468</v>
+      </c>
+      <c r="E20">
+        <v>0.05538625647522228</v>
+      </c>
+      <c r="F20">
+        <v>0.02396481255310378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04146129438336804</v>
+        <v>-0.04102126930881134</v>
       </c>
       <c r="C21">
-        <v>0.003359985766020469</v>
+        <v>0.006613432562479362</v>
       </c>
       <c r="D21">
-        <v>-0.008170970419767564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03725175740559687</v>
+      </c>
+      <c r="E21">
+        <v>-0.005242277758061772</v>
+      </c>
+      <c r="F21">
+        <v>-0.02556105846566245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02428144827935745</v>
+        <v>-0.04341850135762512</v>
       </c>
       <c r="C22">
-        <v>-0.002081934705283145</v>
+        <v>0.0008685314254953102</v>
       </c>
       <c r="D22">
-        <v>0.02396230593644375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005727491811889872</v>
+      </c>
+      <c r="E22">
+        <v>0.03260881687042312</v>
+      </c>
+      <c r="F22">
+        <v>-0.04045571306496078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02422071091754147</v>
+        <v>-0.04339446826405322</v>
       </c>
       <c r="C23">
-        <v>-0.002078444834509796</v>
+        <v>0.0008603426908095163</v>
       </c>
       <c r="D23">
-        <v>0.02396939568341635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005743666195105394</v>
+      </c>
+      <c r="E23">
+        <v>0.03279272950252948</v>
+      </c>
+      <c r="F23">
+        <v>-0.04041988912829333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09810813360581809</v>
+        <v>-0.08012292701904712</v>
       </c>
       <c r="C24">
-        <v>-0.01013584863124681</v>
+        <v>0.00164102147363685</v>
       </c>
       <c r="D24">
-        <v>-0.07682893395900145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.121585461813868</v>
+      </c>
+      <c r="E24">
+        <v>0.04909387647159075</v>
+      </c>
+      <c r="F24">
+        <v>0.0254360370941352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09959084148899287</v>
+        <v>-0.08484764194032279</v>
       </c>
       <c r="C25">
-        <v>-0.007282980433659064</v>
+        <v>0.004216564201176195</v>
       </c>
       <c r="D25">
-        <v>-0.07796326611827502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1093870424987683</v>
+      </c>
+      <c r="E25">
+        <v>0.03217223207793499</v>
+      </c>
+      <c r="F25">
+        <v>0.02579532995157248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05199887139824865</v>
+        <v>-0.05739913187894414</v>
       </c>
       <c r="C26">
-        <v>0.009698279028871689</v>
+        <v>0.01390076406470387</v>
       </c>
       <c r="D26">
-        <v>-0.002289460825905743</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04141850694719671</v>
+      </c>
+      <c r="E26">
+        <v>0.02721852295390834</v>
+      </c>
+      <c r="F26">
+        <v>-0.006970196362287647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09531314822906907</v>
+        <v>-0.1410136806652328</v>
       </c>
       <c r="C28">
-        <v>-0.01134646780629778</v>
+        <v>0.0211850470877104</v>
       </c>
       <c r="D28">
-        <v>0.2501404085861065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2619018872368802</v>
+      </c>
+      <c r="E28">
+        <v>-0.06743925093634427</v>
+      </c>
+      <c r="F28">
+        <v>0.008971437087289601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02680835802261442</v>
+        <v>-0.02880178527004849</v>
       </c>
       <c r="C29">
-        <v>0.005604141046982898</v>
+        <v>0.008832961604586144</v>
       </c>
       <c r="D29">
-        <v>-0.009152183782117709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03095728041976233</v>
+      </c>
+      <c r="E29">
+        <v>0.01122619488475197</v>
+      </c>
+      <c r="F29">
+        <v>-0.01388672511624276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1047188557635892</v>
+        <v>-0.05988208681432631</v>
       </c>
       <c r="C30">
-        <v>-0.01291180620426147</v>
+        <v>0.002902297016028086</v>
       </c>
       <c r="D30">
-        <v>-0.04026346491597726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08868827631675291</v>
+      </c>
+      <c r="E30">
+        <v>0.01964766616658168</v>
+      </c>
+      <c r="F30">
+        <v>0.07858625360776218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0356710653311843</v>
+        <v>-0.05028707260488467</v>
       </c>
       <c r="C31">
-        <v>0.01096312535288452</v>
+        <v>0.01514838889051996</v>
       </c>
       <c r="D31">
-        <v>-0.01433922987658462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02482608924144793</v>
+      </c>
+      <c r="E31">
+        <v>0.02746132557147415</v>
+      </c>
+      <c r="F31">
+        <v>-0.00179577903188019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04896805388054088</v>
+        <v>-0.04991480698854056</v>
       </c>
       <c r="C32">
-        <v>-0.008020443575102726</v>
+        <v>-0.001945720137919583</v>
       </c>
       <c r="D32">
-        <v>-0.008608833865802034</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03632148282088679</v>
+      </c>
+      <c r="E32">
+        <v>0.03139090171888262</v>
+      </c>
+      <c r="F32">
+        <v>0.002808045991127597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1051263431427366</v>
+        <v>-0.08978546112088323</v>
       </c>
       <c r="C33">
-        <v>-0.006710310442366061</v>
+        <v>0.007152424114318801</v>
       </c>
       <c r="D33">
-        <v>-0.04865503044662094</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09970975765418248</v>
+      </c>
+      <c r="E33">
+        <v>0.04373519098612542</v>
+      </c>
+      <c r="F33">
+        <v>0.03588808695459721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.09090593896435029</v>
+        <v>-0.06771659125500287</v>
       </c>
       <c r="C34">
-        <v>-0.001835807015823473</v>
+        <v>0.01009513807853898</v>
       </c>
       <c r="D34">
-        <v>-0.06923022517717368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1082809548763982</v>
+      </c>
+      <c r="E34">
+        <v>0.0348825467118305</v>
+      </c>
+      <c r="F34">
+        <v>0.032278041556065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0218336258750674</v>
+        <v>-0.02472219962235392</v>
       </c>
       <c r="C35">
-        <v>-0.001707751581726314</v>
+        <v>0.00243110824297311</v>
       </c>
       <c r="D35">
-        <v>-0.003043569749649229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0113488316378283</v>
+      </c>
+      <c r="E35">
+        <v>0.01170268133031749</v>
+      </c>
+      <c r="F35">
+        <v>0.0001053130148686577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01547607697016092</v>
+        <v>-0.02753028920736918</v>
       </c>
       <c r="C36">
-        <v>0.007490531757429819</v>
+        <v>0.006796648930844027</v>
       </c>
       <c r="D36">
-        <v>-0.02493507339610348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03935013961962344</v>
+      </c>
+      <c r="E36">
+        <v>0.01600094646947811</v>
+      </c>
+      <c r="F36">
+        <v>0.01510672687186244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-6.971237643494992e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001996576110769794</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-7.113917875567279e-05</v>
+      </c>
+      <c r="E37">
+        <v>-0.000440493472503636</v>
+      </c>
+      <c r="F37">
+        <v>0.0008157307284824267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001801210444580995</v>
+        <v>-0.001000949407835368</v>
       </c>
       <c r="C38">
-        <v>-0.0002421129621051188</v>
+        <v>0.0001525708618874108</v>
       </c>
       <c r="D38">
-        <v>0.001566847074883362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004775810824221923</v>
+      </c>
+      <c r="E38">
+        <v>0.0001186172213257497</v>
+      </c>
+      <c r="F38">
+        <v>-0.001061425059000673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1373573025552916</v>
+        <v>-0.1053916491050194</v>
       </c>
       <c r="C39">
-        <v>-0.003098542011485151</v>
+        <v>0.0156408849109267</v>
       </c>
       <c r="D39">
-        <v>-0.111895489352847</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1537942779892277</v>
+      </c>
+      <c r="E39">
+        <v>0.05892403124678842</v>
+      </c>
+      <c r="F39">
+        <v>0.02870934580984306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02779178592694191</v>
+        <v>-0.04242138510671507</v>
       </c>
       <c r="C40">
-        <v>0.00473565069943433</v>
+        <v>0.006782969718305712</v>
       </c>
       <c r="D40">
-        <v>0.01286370809638342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03170173762231628</v>
+      </c>
+      <c r="E40">
+        <v>0.003231933979449573</v>
+      </c>
+      <c r="F40">
+        <v>-0.01637945753657418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02044959893960167</v>
+        <v>-0.02768607352540018</v>
       </c>
       <c r="C41">
-        <v>0.004269687716439283</v>
+        <v>0.006726974803130708</v>
       </c>
       <c r="D41">
-        <v>0.004056423650185994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01022823657875077</v>
+      </c>
+      <c r="E41">
+        <v>0.01252305681327884</v>
+      </c>
+      <c r="F41">
+        <v>-0.006844412571275474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01985229318482245</v>
+        <v>-0.04051022413678526</v>
       </c>
       <c r="C43">
-        <v>0.006315305488095405</v>
+        <v>0.006873801513600375</v>
       </c>
       <c r="D43">
-        <v>-0.006290360029690939</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01928357167128278</v>
+      </c>
+      <c r="E43">
+        <v>0.02448088414900053</v>
+      </c>
+      <c r="F43">
+        <v>-0.01365535963845885</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1090318538341359</v>
+        <v>-0.08021403653181633</v>
       </c>
       <c r="C44">
-        <v>0.005454785459750122</v>
+        <v>0.01953756371645927</v>
       </c>
       <c r="D44">
-        <v>-0.03894411456372926</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09743962976914845</v>
+      </c>
+      <c r="E44">
+        <v>0.06295229774819271</v>
+      </c>
+      <c r="F44">
+        <v>0.1543288992086514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005688002718329061</v>
+        <v>-0.02379647116126423</v>
       </c>
       <c r="C46">
-        <v>0.004177891066851525</v>
+        <v>0.003692823555325242</v>
       </c>
       <c r="D46">
-        <v>0.002742283995768582</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01291172177115007</v>
+      </c>
+      <c r="E46">
+        <v>0.02236904134693949</v>
+      </c>
+      <c r="F46">
+        <v>-0.007677868287799505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04213401124373886</v>
+        <v>-0.0521736800838149</v>
       </c>
       <c r="C47">
-        <v>-0.001917072878483195</v>
+        <v>0.003290410381864887</v>
       </c>
       <c r="D47">
-        <v>0.02546393305351465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01377745251461271</v>
+      </c>
+      <c r="E47">
+        <v>0.02378888987727469</v>
+      </c>
+      <c r="F47">
+        <v>-0.03283195924832509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05258668534826724</v>
+        <v>-0.04969148903687614</v>
       </c>
       <c r="C48">
-        <v>-0.004288907562150824</v>
+        <v>0.002009817551419552</v>
       </c>
       <c r="D48">
-        <v>-0.02707309662849446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05036390607563673</v>
+      </c>
+      <c r="E48">
+        <v>-0.00621469155378296</v>
+      </c>
+      <c r="F48">
+        <v>0.01018546675422989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2221626532565374</v>
+        <v>-0.2011452458790467</v>
       </c>
       <c r="C49">
-        <v>-0.02284008143339032</v>
+        <v>0.01884077749164456</v>
       </c>
       <c r="D49">
-        <v>0.03800416547965715</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006232092548607885</v>
+      </c>
+      <c r="E49">
+        <v>0.03286951908204542</v>
+      </c>
+      <c r="F49">
+        <v>0.03549151875948446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03990006056433368</v>
+        <v>-0.05053484518083644</v>
       </c>
       <c r="C50">
-        <v>0.006195944031943543</v>
+        <v>0.01092548086487216</v>
       </c>
       <c r="D50">
-        <v>-0.007649512933655018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02390811659391464</v>
+      </c>
+      <c r="E50">
+        <v>0.02936844842412143</v>
+      </c>
+      <c r="F50">
+        <v>0.009967241165902212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0007746145932424839</v>
+        <v>-0.0003847870171203363</v>
       </c>
       <c r="C51">
-        <v>-6.8871945355434e-05</v>
+        <v>0.0001053398991766739</v>
       </c>
       <c r="D51">
-        <v>0.0008469263031878377</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001670507915062869</v>
+      </c>
+      <c r="E51">
+        <v>0.0001667720565920911</v>
+      </c>
+      <c r="F51">
+        <v>0.000967044774708627</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.159664103933863</v>
+        <v>-0.1463838201099543</v>
       </c>
       <c r="C52">
-        <v>-0.01371418064838773</v>
+        <v>0.01609995201318434</v>
       </c>
       <c r="D52">
-        <v>-0.02842133406346345</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0434834807488593</v>
+      </c>
+      <c r="E52">
+        <v>0.01975176351947715</v>
+      </c>
+      <c r="F52">
+        <v>0.04356504519279408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1728523215435244</v>
+        <v>-0.1711494738139852</v>
       </c>
       <c r="C53">
-        <v>-0.01559400331860569</v>
+        <v>0.01902942565237723</v>
       </c>
       <c r="D53">
-        <v>0.004138462674756867</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005893362726146524</v>
+      </c>
+      <c r="E53">
+        <v>0.03124576383876747</v>
+      </c>
+      <c r="F53">
+        <v>0.0741530750253247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02739639690379448</v>
+        <v>-0.02171152322263449</v>
       </c>
       <c r="C54">
-        <v>0.007320057581620307</v>
+        <v>0.01192122853133193</v>
       </c>
       <c r="D54">
-        <v>-0.009789764820100112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03377066586360832</v>
+      </c>
+      <c r="E54">
+        <v>0.01717172405918977</v>
+      </c>
+      <c r="F54">
+        <v>-0.004911488776780304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1049283860667097</v>
+        <v>-0.113954676889534</v>
       </c>
       <c r="C55">
-        <v>-0.004345631275783343</v>
+        <v>0.01668536843641739</v>
       </c>
       <c r="D55">
-        <v>0.007346690109889788</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008325711817672379</v>
+      </c>
+      <c r="E55">
+        <v>0.02711527521163207</v>
+      </c>
+      <c r="F55">
+        <v>0.04839272132772953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1719040649047607</v>
+        <v>-0.1763839611494533</v>
       </c>
       <c r="C56">
-        <v>-0.01770909729309599</v>
+        <v>0.01677483087654785</v>
       </c>
       <c r="D56">
-        <v>0.01906375728242732</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0005137077266282959</v>
+      </c>
+      <c r="E56">
+        <v>0.03516766744843962</v>
+      </c>
+      <c r="F56">
+        <v>0.05243838104845116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03722038546811843</v>
+        <v>-0.04496679693598315</v>
       </c>
       <c r="C58">
-        <v>0.00077197742752405</v>
+        <v>-0.0005082980433837327</v>
       </c>
       <c r="D58">
-        <v>-0.03899919405188649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07110948395142166</v>
+      </c>
+      <c r="E58">
+        <v>0.02787628948089344</v>
+      </c>
+      <c r="F58">
+        <v>-0.03746384679839779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1209002507919046</v>
+        <v>-0.1685277218519651</v>
       </c>
       <c r="C59">
-        <v>-0.0132526654606406</v>
+        <v>0.02158814385865633</v>
       </c>
       <c r="D59">
-        <v>0.2215528465803054</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2186093011247981</v>
+      </c>
+      <c r="E59">
+        <v>-0.04582587978698972</v>
+      </c>
+      <c r="F59">
+        <v>-0.03590273180137179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2605847240965052</v>
+        <v>-0.231819003217996</v>
       </c>
       <c r="C60">
-        <v>-0.05120270135580442</v>
+        <v>-0.002946165726475993</v>
       </c>
       <c r="D60">
-        <v>-0.02251282279176573</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0430085589538779</v>
+      </c>
+      <c r="E60">
+        <v>0.01206887125991015</v>
+      </c>
+      <c r="F60">
+        <v>-0.004889790748357863</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1135603492373461</v>
+        <v>-0.08118654219981854</v>
       </c>
       <c r="C61">
-        <v>-0.00506251223918531</v>
+        <v>0.01136848182734548</v>
       </c>
       <c r="D61">
-        <v>-0.07009230609003438</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.117556641924977</v>
+      </c>
+      <c r="E61">
+        <v>0.03878783694057523</v>
+      </c>
+      <c r="F61">
+        <v>0.01096822371519211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1691185044656885</v>
+        <v>-0.1693293989208947</v>
       </c>
       <c r="C62">
-        <v>-0.01408630955077184</v>
+        <v>0.02005872575609443</v>
       </c>
       <c r="D62">
-        <v>0.01468143597827506</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006274053246707967</v>
+      </c>
+      <c r="E62">
+        <v>0.03383223700214748</v>
+      </c>
+      <c r="F62">
+        <v>0.03465613130581242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04771075730076876</v>
+        <v>-0.04558736742505102</v>
       </c>
       <c r="C63">
-        <v>-0.003161170798661511</v>
+        <v>0.001616082170296556</v>
       </c>
       <c r="D63">
-        <v>-0.03352532667493489</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05939007299062488</v>
+      </c>
+      <c r="E63">
+        <v>0.0220925658075668</v>
+      </c>
+      <c r="F63">
+        <v>0.003936998389328135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09805790199363854</v>
+        <v>-0.1098205822169022</v>
       </c>
       <c r="C64">
-        <v>-0.002019175634420829</v>
+        <v>0.01091569253898111</v>
       </c>
       <c r="D64">
-        <v>-0.004310469435773272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04408740635811072</v>
+      </c>
+      <c r="E64">
+        <v>0.02412527632354138</v>
+      </c>
+      <c r="F64">
+        <v>0.02465704055348176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1275886738100782</v>
+        <v>-0.1484236687846176</v>
       </c>
       <c r="C65">
-        <v>0.008737315945010302</v>
+        <v>0.03292463324180928</v>
       </c>
       <c r="D65">
-        <v>0.02848216031958747</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04033241625179907</v>
+      </c>
+      <c r="E65">
+        <v>0.005374600369406378</v>
+      </c>
+      <c r="F65">
+        <v>0.03901446910968578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1662787314526287</v>
+        <v>-0.1244258735033699</v>
       </c>
       <c r="C66">
-        <v>-0.01007837055759971</v>
+        <v>0.01360483210487172</v>
       </c>
       <c r="D66">
-        <v>-0.09953884851406537</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1423639016082206</v>
+      </c>
+      <c r="E66">
+        <v>0.0656787203132053</v>
+      </c>
+      <c r="F66">
+        <v>0.03187374274782495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06445490610849298</v>
+        <v>-0.05973655191673691</v>
       </c>
       <c r="C67">
-        <v>-0.006638798934114938</v>
+        <v>0.003114336716310012</v>
       </c>
       <c r="D67">
-        <v>-0.02124634126560082</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05533416522380667</v>
+      </c>
+      <c r="E67">
+        <v>0.01726000997056157</v>
+      </c>
+      <c r="F67">
+        <v>-0.03298885737947303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07959474993822203</v>
+        <v>-0.116642172757959</v>
       </c>
       <c r="C68">
-        <v>0.002334451018198838</v>
+        <v>0.03209687989589753</v>
       </c>
       <c r="D68">
-        <v>0.2301188722393939</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2608600188077579</v>
+      </c>
+      <c r="E68">
+        <v>-0.08627780558701265</v>
+      </c>
+      <c r="F68">
+        <v>0.00507284228741056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03620478255627058</v>
+        <v>-0.04000279180823733</v>
       </c>
       <c r="C69">
-        <v>-0.004562988366479298</v>
+        <v>0.001262678673723402</v>
       </c>
       <c r="D69">
-        <v>0.01026329824130297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007243079651173818</v>
+      </c>
+      <c r="E69">
+        <v>0.02219682018671558</v>
+      </c>
+      <c r="F69">
+        <v>0.001440076631240647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02993349235638249</v>
+        <v>-0.06611721322702756</v>
       </c>
       <c r="C70">
-        <v>-0.02693967065393821</v>
+        <v>-0.02777891479592702</v>
       </c>
       <c r="D70">
-        <v>0.02872738825487753</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02414685020977168</v>
+      </c>
+      <c r="E70">
+        <v>-0.03719748946991782</v>
+      </c>
+      <c r="F70">
+        <v>-0.18379494925686</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09464911147907951</v>
+        <v>-0.136266556803104</v>
       </c>
       <c r="C71">
-        <v>0.003342079146638929</v>
+        <v>0.0363533404146286</v>
       </c>
       <c r="D71">
-        <v>0.2455950139285913</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2732471297217</v>
+      </c>
+      <c r="E71">
+        <v>-0.09645624034720862</v>
+      </c>
+      <c r="F71">
+        <v>0.01011382939774218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1353019668218062</v>
+        <v>-0.1420400791792339</v>
       </c>
       <c r="C72">
-        <v>0.0009247813627802569</v>
+        <v>0.02613909172790811</v>
       </c>
       <c r="D72">
-        <v>0.02953796735977511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0007696406538362583</v>
+      </c>
+      <c r="E72">
+        <v>0.03857121443276441</v>
+      </c>
+      <c r="F72">
+        <v>0.03346247312406017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2080327370639176</v>
+        <v>-0.2024968255410926</v>
       </c>
       <c r="C73">
-        <v>-0.02607954473388972</v>
+        <v>0.01223981200659669</v>
       </c>
       <c r="D73">
-        <v>0.03252774801420507</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01786170937273279</v>
+      </c>
+      <c r="E73">
+        <v>0.06464760561765934</v>
+      </c>
+      <c r="F73">
+        <v>0.03471093633569979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1028387988272741</v>
+        <v>-0.09446992783385426</v>
       </c>
       <c r="C74">
-        <v>-0.00739441738495368</v>
+        <v>0.01317394513438215</v>
       </c>
       <c r="D74">
-        <v>0.001319833087625628</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01720410193101237</v>
+      </c>
+      <c r="E74">
+        <v>0.04377813583480664</v>
+      </c>
+      <c r="F74">
+        <v>0.05902219579844906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1379003218803773</v>
+        <v>-0.1273873620193496</v>
       </c>
       <c r="C75">
-        <v>0.002333678837008061</v>
+        <v>0.02790197602242478</v>
       </c>
       <c r="D75">
-        <v>0.004496374429277953</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03036522735179778</v>
+      </c>
+      <c r="E75">
+        <v>0.05753225445932315</v>
+      </c>
+      <c r="F75">
+        <v>0.02152832139891365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001076503338568732</v>
+        <v>-7.273644268046214e-05</v>
       </c>
       <c r="C76">
-        <v>-3.985596772486726e-06</v>
+        <v>2.140378779282063e-05</v>
       </c>
       <c r="D76">
-        <v>0.0003671237165769872</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.00016941677779025</v>
+      </c>
+      <c r="E76">
+        <v>-5.712887079660472e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0001595293167717735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08633245028800098</v>
+        <v>-0.08709512133930708</v>
       </c>
       <c r="C77">
-        <v>-5.51413601638273e-05</v>
+        <v>0.007982175494913908</v>
       </c>
       <c r="D77">
-        <v>-0.0739869882174309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1132261777583991</v>
+      </c>
+      <c r="E77">
+        <v>0.03899950613807788</v>
+      </c>
+      <c r="F77">
+        <v>0.03043378146565594</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1419814220684565</v>
+        <v>-0.1009279369954328</v>
       </c>
       <c r="C78">
-        <v>0.02076467831774203</v>
+        <v>0.0394809025036121</v>
       </c>
       <c r="D78">
-        <v>-0.02503314313305099</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1154314571927848</v>
+      </c>
+      <c r="E78">
+        <v>0.07376392068818756</v>
+      </c>
+      <c r="F78">
+        <v>0.04495898220059507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1557938531413031</v>
+        <v>-0.1637837941002619</v>
       </c>
       <c r="C79">
-        <v>-0.006103432536501543</v>
+        <v>0.02242863911307639</v>
       </c>
       <c r="D79">
-        <v>0.01956607517945988</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01423767057871401</v>
+      </c>
+      <c r="E79">
+        <v>0.04536225526352526</v>
+      </c>
+      <c r="F79">
+        <v>0.01188657918144521</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08819898711678111</v>
+        <v>-0.08267695045770165</v>
       </c>
       <c r="C80">
-        <v>-0.0139455875943991</v>
+        <v>-0.001206205401892831</v>
       </c>
       <c r="D80">
-        <v>-0.02802575322385583</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05678638282482361</v>
+      </c>
+      <c r="E80">
+        <v>0.03606654203213273</v>
+      </c>
+      <c r="F80">
+        <v>-0.02190680294266169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1268704012673381</v>
+        <v>-0.120348463120198</v>
       </c>
       <c r="C81">
-        <v>0.007960712958589248</v>
+        <v>0.03180635690726607</v>
       </c>
       <c r="D81">
-        <v>-0.006525631860070296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01467704696299399</v>
+      </c>
+      <c r="E81">
+        <v>0.05603994362855446</v>
+      </c>
+      <c r="F81">
+        <v>0.01896431079306824</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1706492843936298</v>
+        <v>-0.1654542296779923</v>
       </c>
       <c r="C82">
-        <v>-0.009933361827636</v>
+        <v>0.02431031747926795</v>
       </c>
       <c r="D82">
-        <v>0.001931122107039567</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003598812319297821</v>
+      </c>
+      <c r="E82">
+        <v>0.02772982395201625</v>
+      </c>
+      <c r="F82">
+        <v>0.0829543070629184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0694646273712915</v>
+        <v>-0.0596455938621271</v>
       </c>
       <c r="C83">
-        <v>-0.006378598423293317</v>
+        <v>0.002696763269641289</v>
       </c>
       <c r="D83">
-        <v>-0.02792845186984225</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05065881741663794</v>
+      </c>
+      <c r="E83">
+        <v>0.004495589312612684</v>
+      </c>
+      <c r="F83">
+        <v>-0.03015429206300254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07708432201995863</v>
+        <v>-0.05867790252452017</v>
       </c>
       <c r="C84">
-        <v>0.001279667936132428</v>
+        <v>0.01109835532316676</v>
       </c>
       <c r="D84">
-        <v>-0.03463815423444174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06349971514621208</v>
+      </c>
+      <c r="E84">
+        <v>0.006215723412057775</v>
+      </c>
+      <c r="F84">
+        <v>0.004287470715491537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.137523811411456</v>
+        <v>-0.1361782487193057</v>
       </c>
       <c r="C85">
-        <v>0.001928283799944753</v>
+        <v>0.0277940962164533</v>
       </c>
       <c r="D85">
-        <v>0.009917638827245964</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009683423079832599</v>
+      </c>
+      <c r="E85">
+        <v>0.03691694239746512</v>
+      </c>
+      <c r="F85">
+        <v>0.04721098747224712</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.07630656601126522</v>
+        <v>-0.0961270755804582</v>
       </c>
       <c r="C86">
-        <v>-0.01115634697576526</v>
+        <v>-0.005089268480289417</v>
       </c>
       <c r="D86">
-        <v>0.09695303706284621</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03918036180879198</v>
+      </c>
+      <c r="E86">
+        <v>0.2175248822521941</v>
+      </c>
+      <c r="F86">
+        <v>-0.9090960254939878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1357702080602304</v>
+        <v>-0.09625103858166006</v>
       </c>
       <c r="C87">
-        <v>0.001976810877026813</v>
+        <v>0.01958262638940343</v>
       </c>
       <c r="D87">
-        <v>-0.05289662247287855</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09459473842654229</v>
+      </c>
+      <c r="E87">
+        <v>-0.05294327098324517</v>
+      </c>
+      <c r="F87">
+        <v>0.04900063991101315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05580333549945559</v>
+        <v>-0.06068840870057107</v>
       </c>
       <c r="C88">
-        <v>-0.00377587980883657</v>
+        <v>0.002071649003233997</v>
       </c>
       <c r="D88">
-        <v>-0.01485257019674903</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04924858332907618</v>
+      </c>
+      <c r="E88">
+        <v>0.02392197229473637</v>
+      </c>
+      <c r="F88">
+        <v>0.01349792892777366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1012334846953546</v>
+        <v>-0.1328430725805769</v>
       </c>
       <c r="C89">
-        <v>-0.02090344209507436</v>
+        <v>0.0132322294939563</v>
       </c>
       <c r="D89">
-        <v>0.2595068446343615</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2480654010207339</v>
+      </c>
+      <c r="E89">
+        <v>-0.08988194187935845</v>
+      </c>
+      <c r="F89">
+        <v>-0.009584404527143622</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1010713192925401</v>
+        <v>-0.1508892040096517</v>
       </c>
       <c r="C90">
-        <v>-4.508515225245627e-05</v>
+        <v>0.03274471842882475</v>
       </c>
       <c r="D90">
-        <v>0.2429743376440962</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2699578792827715</v>
+      </c>
+      <c r="E90">
+        <v>-0.1123566982422021</v>
+      </c>
+      <c r="F90">
+        <v>-0.003720008385893596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1089520804673382</v>
+        <v>-0.1204070185496053</v>
       </c>
       <c r="C91">
-        <v>-0.004115858005255075</v>
+        <v>0.01912976431083858</v>
       </c>
       <c r="D91">
-        <v>0.03199265426812627</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0141953806431665</v>
+      </c>
+      <c r="E91">
+        <v>0.05596707572147323</v>
+      </c>
+      <c r="F91">
+        <v>-0.0002312671179540773</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1025047953733623</v>
+        <v>-0.1480562993553543</v>
       </c>
       <c r="C92">
-        <v>-0.0158006297650837</v>
+        <v>0.02407551149234115</v>
       </c>
       <c r="D92">
-        <v>0.257480826533796</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2923607088530352</v>
+      </c>
+      <c r="E92">
+        <v>-0.1017913647463871</v>
+      </c>
+      <c r="F92">
+        <v>-0.01263426446873974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1066880269170618</v>
+        <v>-0.1521523417295631</v>
       </c>
       <c r="C93">
-        <v>-0.006173059466604475</v>
+        <v>0.02837845315433531</v>
       </c>
       <c r="D93">
-        <v>0.25642038459813</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2688809018715687</v>
+      </c>
+      <c r="E93">
+        <v>-0.07772246288616851</v>
+      </c>
+      <c r="F93">
+        <v>0.002598597814940817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.145995880252903</v>
+        <v>-0.129598453455375</v>
       </c>
       <c r="C94">
-        <v>-0.002802658826092045</v>
+        <v>0.02454408367557877</v>
       </c>
       <c r="D94">
-        <v>-0.01002999350587934</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04290508642211922</v>
+      </c>
+      <c r="E94">
+        <v>0.05696563170122586</v>
+      </c>
+      <c r="F94">
+        <v>0.03827803275189951</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1240754268245748</v>
+        <v>-0.1274222703252554</v>
       </c>
       <c r="C95">
-        <v>-0.01168211886334071</v>
+        <v>0.003493993436858516</v>
       </c>
       <c r="D95">
-        <v>-0.04388444321485652</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09280326833888904</v>
+      </c>
+      <c r="E95">
+        <v>0.04677247635090938</v>
+      </c>
+      <c r="F95">
+        <v>-0.008150970837358351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0787098791377509</v>
+        <v>-0.1064880397144153</v>
       </c>
       <c r="C96">
-        <v>-0.9916369837556124</v>
+        <v>-0.9874102057274033</v>
       </c>
       <c r="D96">
-        <v>0.02392339289359368</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04948848439001584</v>
+      </c>
+      <c r="E96">
+        <v>0.05497130248388792</v>
+      </c>
+      <c r="F96">
+        <v>0.0413081770526119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.17647503252574</v>
+        <v>-0.1923110467142056</v>
       </c>
       <c r="C97">
-        <v>-0.04011841288254396</v>
+        <v>-0.007643739527659988</v>
       </c>
       <c r="D97">
-        <v>0.06723110575166623</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01671006023061984</v>
+      </c>
+      <c r="E97">
+        <v>0.01806166020897155</v>
+      </c>
+      <c r="F97">
+        <v>-0.07783717201363363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1972127642027234</v>
+        <v>-0.2054523302359426</v>
       </c>
       <c r="C98">
-        <v>-0.02999719360715172</v>
+        <v>0.006940907978572444</v>
       </c>
       <c r="D98">
-        <v>-0.007529718650614213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01316281851876957</v>
+      </c>
+      <c r="E98">
+        <v>-0.08310662461488824</v>
+      </c>
+      <c r="F98">
+        <v>-0.09167471847329384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05577716961994799</v>
+        <v>-0.05540636164690799</v>
       </c>
       <c r="C99">
-        <v>-0.01267629892331107</v>
+        <v>-0.004622860787003348</v>
       </c>
       <c r="D99">
-        <v>-0.007343993949009588</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03900302322627557</v>
+      </c>
+      <c r="E99">
+        <v>0.02250931719945745</v>
+      </c>
+      <c r="F99">
+        <v>0.001084522926372883</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.166587683641532</v>
+        <v>-0.1255258170333924</v>
       </c>
       <c r="C100">
-        <v>-0.06263635681004338</v>
+        <v>-0.05474288259400643</v>
       </c>
       <c r="D100">
-        <v>-0.6186426484341704</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3431930634540871</v>
+      </c>
+      <c r="E100">
+        <v>-0.8887599706852735</v>
+      </c>
+      <c r="F100">
+        <v>-0.146748955305118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02648063333495112</v>
+        <v>-0.02876163308080049</v>
       </c>
       <c r="C101">
-        <v>0.005633598994730967</v>
+        <v>0.008859322826061954</v>
       </c>
       <c r="D101">
-        <v>-0.008377333919613034</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03056233061578403</v>
+      </c>
+      <c r="E101">
+        <v>0.01059802457767976</v>
+      </c>
+      <c r="F101">
+        <v>-0.01505223490366255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
